--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9564" tabRatio="936" activeTab="12"/>
+    <workbookView windowWidth="21000" windowHeight="11790" tabRatio="936" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="main_stream" sheetId="11" r:id="rId11"/>
     <sheet name="register_v0" sheetId="12" r:id="rId12"/>
     <sheet name="invest" sheetId="13" r:id="rId13"/>
+    <sheet name="shop_register" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="250">
   <si>
     <t>case_id</t>
   </si>
@@ -193,7 +194,7 @@
     <t>http://api.lemonban.com/futureloan/member/login</t>
   </si>
   <si>
-    <t>{"mobile_phone":"15512345678","pwd":"12345678"}</t>
+    <t>{"phone":"17386049718","password":"123456"}</t>
   </si>
   <si>
     <t>{"X-Lemonban-Media-Type": "lemonban.v2 "}</t>
@@ -202,49 +203,7 @@
     <t>未通过</t>
   </si>
   <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
-    <t>{"pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "手机号码为空"}</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"15512345678"}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "密码为空"}</t>
-  </si>
-  <si>
-    <t>手机号未注册</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"15512345678","pwd":"1234566"}</t>
-  </si>
-  <si>
-    <t>{"code": 1001, "msg": "账号信息错误"}</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"15512345678","pwd":"1234567"}</t>
-  </si>
-  <si>
-    <t>{"code": 1001,"msg": "账号信息错误"}</t>
-  </si>
-  <si>
-    <t>手机号格式错误</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"12345678912","pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "无效的手机格式"}</t>
+    <t>{"phone":"1738604718","password":"123456"}</t>
   </si>
   <si>
     <t>sql_code</t>
@@ -806,6 +765,18 @@
   </si>
   <si>
     <t>获取项目列表</t>
+  </si>
+  <si>
+    <t>api/easy/shop/register/</t>
+  </si>
+  <si>
+    <t>{"shop_name":"qwertyuipah0","shop_img":"pfeasy/MTYwNDc3ODAyOTI1OC0zYzcxZTgwYw==.jpg","business_license":"pfeasy/MTYwNDc3ODAzMTM4MS05YTZlYjVhMQ==.jpg","shop_province":420000,"shop_city":420100,"shop_county":420106,"shop_address":"sadasd","latitude":30.58108413,"longitude":114.3162001,"inviter_phone":"","description":""}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8"}</t>
+  </si>
+  <si>
+    <t>{"shop_name":"qwertyuipasdfgh0","shop_img":"pfeasy/MTYwNDc4MDEwMzgyMi0xYmU2M2ZhYw==.jpg","business_license":"pfeasy/MTYwNDc4MDEwNjAyMS0zNDgzYzI2Nw==.jpg","shop_province":420000,"shop_city":420100,"shop_county":420106,"shop_address":"asdasd","latitude":30.58108413,"longitude":114.3162001,"inviter_phone":"","description":""}</t>
   </si>
 </sst>
 </file>
@@ -813,10 +784,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -889,6 +860,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -917,75 +903,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +920,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1010,8 +934,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,7 +997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,13 +1021,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,151 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,15 +1230,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1283,50 +1245,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,16 +1279,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1374,16 +1345,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -1392,121 +1363,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1535,9 +1509,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1865,15 +1836,15 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="20.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20.8916666666667" customWidth="1"/>
     <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="17.5583333333333" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="38.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="38.8916666666667" customWidth="1"/>
     <col min="8" max="8" width="6.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1919,7 +1890,7 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
@@ -1971,7 +1942,7 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1997,7 +1968,7 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2023,7 +1994,7 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2049,7 +2020,7 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2075,7 +2046,7 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2101,7 +2072,7 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2127,7 +2098,7 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2153,7 +2124,7 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2173,25 +2144,25 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H12" t="s">
@@ -2205,7 +2176,7 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2231,7 +2202,7 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2272,7 +2243,7 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -2305,44 +2276,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
-        <v>244</v>
+      <c r="E3" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2366,12 +2337,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="10.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="20.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="19.775" customWidth="1"/>
     <col min="7" max="7" width="26.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="21.6666666666667" customWidth="1"/>
   </cols>
@@ -2380,25 +2351,25 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -2413,16 +2384,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -2439,16 +2410,16 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -2456,26 +2427,26 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" ht="15.6" customHeight="1" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
@@ -2483,26 +2454,26 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" ht="15.6" customHeight="1" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -2510,7 +2481,7 @@
       <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" spans="1:9">
       <c r="A6">
@@ -2520,16 +2491,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -2537,7 +2508,7 @@
       <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" ht="15.6" customHeight="1" spans="1:9">
       <c r="A7">
@@ -2547,16 +2518,16 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
@@ -2564,26 +2535,26 @@
       <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" ht="15.6" customHeight="1" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" t="s">
         <v>239</v>
       </c>
-      <c r="C8" t="s">
-        <v>253</v>
-      </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -2591,26 +2562,26 @@
       <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" ht="15.6" customHeight="1" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
@@ -2618,26 +2589,26 @@
       <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" ht="15.6" customHeight="1" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
@@ -2645,26 +2616,26 @@
       <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" ht="15.6" customHeight="1" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
@@ -2672,26 +2643,26 @@
       <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" ht="15.6" customHeight="1" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2699,26 +2670,26 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G13" t="s">
         <v>49</v>
@@ -2742,12 +2713,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="17.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="49.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="76.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="76.775" customWidth="1"/>
     <col min="5" max="5" width="61.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2772,13 +2743,13 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2795,7 +2766,7 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2812,7 +2783,7 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2829,7 +2800,7 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2846,7 +2817,7 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2863,7 +2834,7 @@
       <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2880,7 +2851,7 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2897,7 +2868,7 @@
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2905,19 +2876,19 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2931,7 +2902,7 @@
       <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2948,7 +2919,7 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2969,16 +2940,16 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="23.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="23.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="42.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="23.8916666666667" customWidth="1"/>
+    <col min="5" max="5" width="23.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="42.225" customWidth="1"/>
     <col min="7" max="7" width="65.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="46.6666666666667" customWidth="1"/>
   </cols>
@@ -3020,22 +2991,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>78</v>
+        <v>185</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
@@ -3052,25 +3023,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>78</v>
+        <v>185</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -3081,25 +3052,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>78</v>
+        <v>185</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -3110,28 +3081,102 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>78</v>
+        <v>185</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <cols>
+    <col min="6" max="6" width="71.325" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="71.25" spans="2:7">
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" ht="71.25" spans="2:7">
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3143,18 +3188,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
-    <col min="3" max="3" width="16.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="16.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="49.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="45.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="49.8916666666667" customWidth="1"/>
+    <col min="6" max="6" width="45.775" customWidth="1"/>
     <col min="7" max="7" width="25.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="38.3333333333333" customWidth="1"/>
   </cols>
@@ -3201,13 +3246,13 @@
       <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H2" t="s">
@@ -3217,156 +3262,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:9">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="6:6">
+      <c r="F3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" s="8" customFormat="1" spans="1:9">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="interface"/>
     <hyperlink ref="E2" r:id="rId2" display="http://api.lemonban.com/futureloan/member/login" tooltip="http://api.lemonban.com/futureloan/member/login"/>
-    <hyperlink ref="E7" r:id="rId2" display="http://api.lemonban.com/futureloan/member/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3382,16 +3286,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="9.11111111111111" customWidth="1"/>
-    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="9.10833333333333" customWidth="1"/>
+    <col min="3" max="3" width="23.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="52.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="52.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="47.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="52.225" customWidth="1"/>
+    <col min="7" max="7" width="52.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="47.8916666666667" customWidth="1"/>
     <col min="9" max="9" width="32.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
   </cols>
@@ -3419,7 +3323,7 @@
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -3433,28 +3337,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="17"/>
       <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3463,28 +3367,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="17"/>
       <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3493,28 +3397,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="17"/>
       <c r="I4" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3523,28 +3427,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="17"/>
       <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3553,28 +3457,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="17"/>
       <c r="I6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3583,148 +3487,148 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1" spans="1:10">
+      <c r="A8" s="9">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1" spans="1:10">
+      <c r="A9" s="9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:10">
+      <c r="A10" s="9">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="14.4" customHeight="1" spans="1:10">
+      <c r="A11" s="9">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:10">
-      <c r="A8" s="8">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:10">
-      <c r="A9" s="8">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="14.4" customHeight="1" spans="1:10">
-      <c r="A10" s="8">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:10">
-      <c r="A11" s="8">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3733,28 +3637,28 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="17"/>
       <c r="I12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3763,28 +3667,28 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="17"/>
       <c r="I13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3803,17 +3707,17 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="9.55555555555556" customWidth="1"/>
-    <col min="3" max="3" width="19.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="9.55833333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.775" customWidth="1"/>
     <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="50.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="57.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="19.225" customWidth="1"/>
+    <col min="6" max="6" width="50.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="57.775" customWidth="1"/>
     <col min="8" max="8" width="7.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.55555555555556" customWidth="1"/>
+    <col min="9" max="9" width="9.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3850,21 +3754,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
@@ -3876,21 +3780,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>49</v>
       </c>
       <c r="H3" t="s">
@@ -3902,21 +3806,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>49</v>
       </c>
       <c r="H4" t="s">
@@ -3928,21 +3832,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>49</v>
       </c>
       <c r="H5" t="s">
@@ -3954,22 +3858,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>114</v>
+        <v>94</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -3980,22 +3884,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>117</v>
+        <v>94</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -4006,24 +3910,24 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4032,22 +3936,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -4058,24 +3962,24 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4084,24 +3988,24 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4110,22 +4014,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>128</v>
+        <v>94</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -4136,22 +4040,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>130</v>
+        <v>94</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -4162,24 +4066,24 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4188,22 +4092,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -4224,18 +4128,18 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="26.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="13.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="16.7962962962963" customWidth="1"/>
-    <col min="7" max="7" width="82.8981481481482" customWidth="1"/>
-    <col min="8" max="8" width="24.962962962963" customWidth="1"/>
-    <col min="9" max="9" width="7.17592592592593" customWidth="1"/>
-    <col min="10" max="10" width="12.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="26.225" customWidth="1"/>
+    <col min="5" max="5" width="13.775" customWidth="1"/>
+    <col min="6" max="6" width="16.8" customWidth="1"/>
+    <col min="7" max="7" width="82.9" customWidth="1"/>
+    <col min="8" max="8" width="24.9666666666667" customWidth="1"/>
+    <col min="9" max="9" width="7.175" customWidth="1"/>
+    <col min="10" max="10" width="12.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="14.25" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4272,22 +4176,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
@@ -4296,7 +4200,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" ht="43.2" customHeight="1" spans="1:9">
@@ -4304,25 +4208,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -4333,25 +4237,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -4362,25 +4266,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -4391,25 +4295,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>78</v>
+      <c r="G6" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -4420,25 +4324,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>78</v>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -4449,25 +4353,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -4478,25 +4382,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -4507,25 +4411,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -4536,25 +4440,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -4565,25 +4469,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -4604,14 +4508,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="16.5583333333333" customWidth="1"/>
     <col min="5" max="5" width="29.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="65.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="31.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="34.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="31.775" customWidth="1"/>
+    <col min="8" max="8" width="34.225" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4652,31 +4556,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="1" spans="1:10">
@@ -4684,31 +4588,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="1" spans="1:9">
@@ -4716,25 +4620,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -4745,25 +4649,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
         <v>165</v>
       </c>
-      <c r="C5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" t="s">
         <v>167</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" t="s">
-        <v>181</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -4774,25 +4678,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="D6" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="F6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" t="s">
         <v>170</v>
-      </c>
-      <c r="H6" t="s">
-        <v>184</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -4803,25 +4707,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -4842,17 +4746,17 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="59.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="29.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="6" max="6" width="59.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="29.1083333333333" customWidth="1"/>
     <col min="8" max="8" width="6.33333333333333" customWidth="1"/>
-    <col min="9" max="9" width="9.55555555555556" customWidth="1"/>
+    <col min="9" max="9" width="9.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4891,17 +4795,17 @@
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>190</v>
+      <c r="C2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -4915,19 +4819,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>192</v>
+        <v>119</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -4943,17 +4847,17 @@
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>194</v>
+      <c r="C4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
@@ -4967,19 +4871,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -4995,17 +4899,17 @@
       <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>197</v>
+      <c r="C6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -5019,24 +4923,24 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>198</v>
+        <v>62</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5045,19 +4949,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>202</v>
+        <v>185</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -5071,22 +4975,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>204</v>
+        <v>185</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -5097,22 +5001,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -5123,22 +5027,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>209</v>
+        <v>185</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -5159,13 +5063,13 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="19.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.89166666666667" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="50.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="22.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="22.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5199,74 +5103,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>217</v>
+        <v>198</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>218</v>
+        <v>196</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>219</v>
+        <v>198</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
@@ -5277,22 +5181,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>220</v>
+        <v>196</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
@@ -5303,22 +5207,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
@@ -5342,10 +5246,10 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="6" width="19.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="33.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="19.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="33.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5375,104 +5279,104 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>231</v>
+        <v>215</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>232</v>
+        <v>212</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>231</v>
+        <v>215</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>234</v>
+        <v>212</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>236</v>
+        <v>215</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>237</v>
+        <v>212</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>236</v>
+        <v>215</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HK416#404\PycharmProjects\auto\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D388A-6561-4775-B61F-F63CAA7A7228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790" tabRatio="936" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="936" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -21,13 +27,14 @@
     <sheet name="register_v0" sheetId="12" r:id="rId12"/>
     <sheet name="invest" sheetId="13" r:id="rId13"/>
     <sheet name="shop_register" sheetId="14" r:id="rId14"/>
+    <sheet name="trans" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="268">
   <si>
     <t>case_id</t>
   </si>
@@ -777,19 +784,85 @@
   </si>
   <si>
     <t>{"shop_name":"qwertyuipasdfgh0","shop_img":"pfeasy/MTYwNDc4MDEwMzgyMi0xYmU2M2ZhYw==.jpg","business_license":"pfeasy/MTYwNDc4MDEwNjAyMS0zNDgzYzI2Nw==.jpg","shop_province":420000,"shop_city":420100,"shop_county":420106,"shop_address":"asdasd","latitude":30.58108413,"longitude":114.3162001,"inviter_phone":"","description":""}</t>
+  </si>
+  <si>
+    <t>起始时间必填</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间必填</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>账目类型非必填</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始时间格式限制</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间格式限制</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取成功</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/easy/data-center/today_transaction/get</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"to_date":"2020-11-14","data_type":0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"from_date":"2020-11-14","data_type":0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"from_date":"2020-11-14","to_date":"2020-11-14"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"from_date":"2020-11-14","to_date":"2020-11-14","data_type":0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected_data</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected_status</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"from_date":"2020/11/14","to_date":"2020-11-14","data_type":0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"from_date":"2020-11-14","to_date":"2020/11/14","data_type":0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,7 +889,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,334 +928,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1229,253 +995,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1488,10 +1015,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1505,68 +1032,31 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1824,31 +1314,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="20.8916666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="38.8916666666667" customWidth="1"/>
-    <col min="8" max="8" width="6.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.875" customWidth="1"/>
+    <col min="8" max="8" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1906,7 +1396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1935,7 +1425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1961,7 +1451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1987,7 +1477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2013,7 +1503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2039,7 +1529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2065,7 +1555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2091,7 +1581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2117,7 +1607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2143,7 +1633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2169,7 +1659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2195,7 +1685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2225,27 +1715,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2271,7 +1760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2295,7 +1784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2320,34 +1809,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="interface"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="20.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="19.775" customWidth="1"/>
-    <col min="7" max="7" width="26.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="21.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +1864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2402,7 +1890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="15.6" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2429,7 +1917,7 @@
       </c>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" ht="15.6" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2456,7 +1944,7 @@
       </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" ht="15.6" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2483,7 +1971,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" ht="15.6" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2510,7 +1998,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" ht="15.6" customHeight="1" spans="1:9">
+    <row r="7" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2537,7 +2025,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" ht="15.6" customHeight="1" spans="1:9">
+    <row r="8" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2564,7 +2052,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" ht="15.6" customHeight="1" spans="1:9">
+    <row r="9" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2591,7 +2079,7 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" ht="15.6" customHeight="1" spans="1:9">
+    <row r="10" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2618,7 +2106,7 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" ht="15.6" customHeight="1" spans="1:9">
+    <row r="11" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2645,7 +2133,7 @@
       </c>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" ht="15.6" customHeight="1" spans="1:9">
+    <row r="12" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2672,7 +2160,7 @@
       </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2699,30 +2187,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="49.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="76.775" customWidth="1"/>
-    <col min="5" max="5" width="61.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="49.375" customWidth="1"/>
+    <col min="4" max="4" width="76.75" customWidth="1"/>
+    <col min="5" max="5" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2739,7 +2226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2756,7 +2243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2773,7 +2260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2790,7 +2277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2807,7 +2294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2824,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2841,7 +2328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2858,7 +2345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2875,7 +2362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2892,7 +2379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2909,7 +2396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2927,34 +2414,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="$A1:$XFD1"/>
+      <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="23.8916666666667" customWidth="1"/>
-    <col min="5" max="5" width="23.5583333333333" customWidth="1"/>
-    <col min="6" max="6" width="42.225" customWidth="1"/>
-    <col min="7" max="7" width="65.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="46.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="42.25" customWidth="1"/>
+    <col min="7" max="7" width="65.625" customWidth="1"/>
+    <col min="8" max="8" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +2472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7</v>
       </c>
@@ -3018,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:9">
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -3047,7 +2533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:9">
+    <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -3076,7 +2562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:9">
+    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -3106,26 +2592,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="71.325" customWidth="1"/>
+    <col min="6" max="6" width="71.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3157,7 +2642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="71.25" spans="2:7">
+    <row r="2" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>246</v>
       </c>
@@ -3168,7 +2653,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" ht="71.25" spans="2:7">
+    <row r="3" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>246</v>
       </c>
@@ -3180,31 +2665,233 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0A4DF0-3CEA-4121-817A-F2F5428FDB9E}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2">
+        <v>400</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3">
+        <v>400</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6">
+        <v>400</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="49.8916666666667" customWidth="1"/>
-    <col min="6" max="6" width="45.775" customWidth="1"/>
-    <col min="7" max="7" width="25.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="38.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="49.875" customWidth="1"/>
+    <col min="6" max="6" width="45.75" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +2920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3262,45 +2949,44 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="6:6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F3" s="1" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="interface"/>
-    <hyperlink ref="E2" r:id="rId2" display="http://api.lemonban.com/futureloan/member/login" tooltip="http://api.lemonban.com/futureloan/member/login"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" tooltip="http://api.lemonban.com/futureloan/member/login" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="9.10833333333333" customWidth="1"/>
-    <col min="3" max="3" width="23.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="52.225" customWidth="1"/>
-    <col min="7" max="7" width="52.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="47.8916666666667" customWidth="1"/>
-    <col min="9" max="9" width="32.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="52.25" customWidth="1"/>
+    <col min="7" max="7" width="52.125" customWidth="1"/>
+    <col min="8" max="8" width="47.875" customWidth="1"/>
+    <col min="9" max="9" width="32.375" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3332,7 +3018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3362,7 +3048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3392,7 +3078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3422,7 +3108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3452,7 +3138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3482,7 +3168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3512,7 +3198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>9</v>
       </c>
@@ -3542,7 +3228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>10</v>
       </c>
@@ -3572,7 +3258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>11</v>
       </c>
@@ -3602,7 +3288,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>12</v>
       </c>
@@ -3632,7 +3318,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="14.4" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
@@ -3662,7 +3348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="14.4" customHeight="1" spans="1:10">
+    <row r="13" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
@@ -3693,34 +3379,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="9.55833333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.775" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.225" customWidth="1"/>
-    <col min="6" max="6" width="50.1083333333333" customWidth="1"/>
-    <col min="7" max="7" width="57.775" customWidth="1"/>
-    <col min="8" max="8" width="7.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.55833333333333" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="50.125" customWidth="1"/>
+    <col min="7" max="7" width="57.75" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3749,7 +3434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:8">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3775,7 +3460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:8">
+    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3801,7 +3486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:8">
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3827,7 +3512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:8">
+    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3853,7 +3538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:8">
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3879,7 +3564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:8">
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3905,7 +3590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:8">
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3931,7 +3616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:8">
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3957,7 +3642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:8">
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3983,7 +3668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:8">
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4009,7 +3694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="14.4" customHeight="1" spans="1:8">
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4035,7 +3720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="14.4" customHeight="1" spans="1:8">
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4061,7 +3746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="14.4" customHeight="1" spans="1:8">
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4087,7 +3772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="14.4" customHeight="1" spans="1:8">
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4114,32 +3799,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="26.225" customWidth="1"/>
-    <col min="5" max="5" width="13.775" customWidth="1"/>
-    <col min="6" max="6" width="16.8" customWidth="1"/>
-    <col min="7" max="7" width="82.9" customWidth="1"/>
-    <col min="8" max="8" width="24.9666666666667" customWidth="1"/>
-    <col min="9" max="9" width="7.175" customWidth="1"/>
-    <col min="10" max="10" width="12.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="82.875" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4171,7 +3855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="57.6" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4203,7 +3887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" ht="43.2" customHeight="1" spans="1:9">
+    <row r="3" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4232,7 +3916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="43.2" customHeight="1" spans="1:9">
+    <row r="4" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4261,7 +3945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="57.6" customHeight="1" spans="1:9">
+    <row r="5" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4290,7 +3974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="57.6" customHeight="1" spans="1:9">
+    <row r="6" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4319,7 +4003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="57.6" customHeight="1" spans="1:9">
+    <row r="7" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4348,7 +4032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="57.6" customHeight="1" spans="1:9">
+    <row r="8" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4377,7 +4061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="57.6" customHeight="1" spans="1:9">
+    <row r="9" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4406,7 +4090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="57.6" customHeight="1" spans="1:9">
+    <row r="10" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4435,7 +4119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="57.6" customHeight="1" spans="1:9">
+    <row r="11" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4464,7 +4148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="72" customHeight="1" spans="1:9">
+    <row r="12" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4494,32 +4178,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="16.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="29.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="65.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="31.775" customWidth="1"/>
-    <col min="8" max="8" width="34.225" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="65.375" customWidth="1"/>
+    <col min="7" max="7" width="31.75" customWidth="1"/>
+    <col min="8" max="8" width="34.25" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4551,7 +4234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4583,7 +4266,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4615,7 +4298,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:9">
+    <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4644,7 +4327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:9">
+    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4673,7 +4356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:9">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4702,7 +4385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:9">
+    <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4732,34 +4415,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
-    <col min="6" max="6" width="59.1083333333333" customWidth="1"/>
-    <col min="7" max="7" width="29.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="6.33333333333333" customWidth="1"/>
-    <col min="9" max="9" width="9.55833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="59.125" customWidth="1"/>
+    <col min="7" max="7" width="29.125" customWidth="1"/>
+    <col min="8" max="8" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4788,7 +4470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:8">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4814,7 +4496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:8">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4840,7 +4522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:8">
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4866,7 +4548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:8">
+    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4892,7 +4574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:8">
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4918,7 +4600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:8">
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4944,7 +4626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:8">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4970,7 +4652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:8">
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4996,7 +4678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:8">
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5022,7 +4704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:8">
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5049,30 +4731,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.8916666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.89166666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="50.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="22.4416666666667" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5098,7 +4779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5124,7 +4805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -5150,7 +4831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -5176,7 +4857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5202,7 +4883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5229,30 +4910,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="interface"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="19.8916666666667" customWidth="1"/>
-    <col min="7" max="7" width="33.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5278,7 +4958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -5304,7 +4984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -5330,7 +5010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -5356,7 +5036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -5383,10 +5063,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="interface"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>